--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5891F05A-1D7C-4B67-9051-2B84B9DF68AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C58EC9-DB3F-4E27-B671-9981BF70FAA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,19 +592,25 @@
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>456</v>
+      </c>
     </row>
     <row r="10" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>703</v>
+      </c>
     </row>
     <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>511</v>
+      </c>
     </row>
     <row r="13" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -617,19 +623,25 @@
       <c r="B17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1">
+        <v>538</v>
+      </c>
     </row>
     <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>733</v>
+      </c>
     </row>
     <row r="19" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>511</v>
+      </c>
     </row>
     <row r="24" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C58EC9-DB3F-4E27-B671-9981BF70FAA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3730F1-AF29-4D01-ABA8-AE45AFF88C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -653,19 +653,25 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1">
+        <v>539</v>
+      </c>
     </row>
     <row r="26" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="2">
+        <v>802</v>
+      </c>
     </row>
     <row r="27" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3">
+        <v>511</v>
+      </c>
     </row>
     <row r="30" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3730F1-AF29-4D01-ABA8-AE45AFF88C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8311DFF-E331-4521-A75C-49F780363E30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,19 +683,25 @@
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>559</v>
+      </c>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>824</v>
+      </c>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>585</v>
+      </c>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8311DFF-E331-4521-A75C-49F780363E30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC478242-567C-4A8B-98CD-99527B78E791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,19 +713,25 @@
       <c r="B37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <v>579</v>
+      </c>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>824</v>
+      </c>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
@@ -737,19 +743,25 @@
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <v>629</v>
+      </c>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2">
+        <v>854</v>
+      </c>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC478242-567C-4A8B-98CD-99527B78E791}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2241357-388E-4EBA-BF3E-CDBE4BEA607F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -773,19 +773,25 @@
       <c r="B49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1">
+        <v>696</v>
+      </c>
     </row>
     <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2">
+        <v>882</v>
+      </c>
     </row>
     <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2241357-388E-4EBA-BF3E-CDBE4BEA607F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE117C-54D9-44EA-8571-E79315D9EBA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="B2:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,19 +803,25 @@
       <c r="B55" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1">
+        <v>718</v>
+      </c>
     </row>
     <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>903</v>
+      </c>
     </row>
     <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <v>636</v>
+      </c>
     </row>
     <row r="61" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE117C-54D9-44EA-8571-E79315D9EBA7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BB1FF-D28C-433A-8F3B-7B796E39E64B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,19 +833,25 @@
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1">
+        <v>738</v>
+      </c>
     </row>
     <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2">
+        <v>926</v>
+      </c>
     </row>
     <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3">
+        <v>636</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4BB1FF-D28C-433A-8F3B-7B796E39E64B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BAA920-F596-45AF-B9F4-3191514CB99D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="B2:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">

--- a/test_case_report/sprint_38.xlsx
+++ b/test_case_report/sprint_38.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\test_case_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3730F1-AF29-4D01-ABA8-AE45AFF88C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BAA920-F596-45AF-B9F4-3191514CB99D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,19 +683,25 @@
       <c r="B31" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="1">
+        <v>559</v>
+      </c>
     </row>
     <row r="32" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="2">
+        <v>824</v>
+      </c>
     </row>
     <row r="33" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3">
+        <v>585</v>
+      </c>
     </row>
     <row r="36" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
@@ -707,19 +713,25 @@
       <c r="B37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1">
+        <v>579</v>
+      </c>
     </row>
     <row r="38" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>824</v>
+      </c>
     </row>
     <row r="39" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="42" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
@@ -731,19 +743,25 @@
       <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <v>629</v>
+      </c>
     </row>
     <row r="44" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="2">
+        <v>854</v>
+      </c>
     </row>
     <row r="45" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="48" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="6" t="s">
@@ -755,19 +773,25 @@
       <c r="B49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="1">
+        <v>696</v>
+      </c>
     </row>
     <row r="50" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="2">
+        <v>882</v>
+      </c>
     </row>
     <row r="51" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3">
+        <v>615</v>
+      </c>
     </row>
     <row r="54" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B54" s="6" t="s">
@@ -779,19 +803,25 @@
       <c r="B55" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="1"/>
+      <c r="C55" s="1">
+        <v>718</v>
+      </c>
     </row>
     <row r="56" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B56" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>903</v>
+      </c>
     </row>
     <row r="57" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3">
+        <v>636</v>
+      </c>
     </row>
     <row r="61" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B61" s="6" t="s">
@@ -803,19 +833,25 @@
       <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1">
+        <v>739</v>
+      </c>
     </row>
     <row r="63" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="2">
+        <v>926</v>
+      </c>
     </row>
     <row r="64" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3">
+        <v>636</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
